--- a/doc/log/log_201508030313_caisongjiang.xlsx
+++ b/doc/log/log_201508030313_caisongjiang.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="13545" windowHeight="5535"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>日期</t>
   </si>
@@ -45,6 +46,15 @@
   </si>
   <si>
     <t>3.数据库表自动生成；</t>
+  </si>
+  <si>
+    <t>13：00-16：50</t>
+  </si>
+  <si>
+    <t>1.配置好环境，导出更新后项目；
+2:下载TortoiseGit并进行汉化：
+3.在score-dao中进行创建操作；
+4.在score-service中进行创建操作；</t>
   </si>
   <si>
     <t>周次</t>
@@ -60,10 +70,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,66 +90,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,45 +106,75 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +210,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,31 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,151 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,15 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,6 +503,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -526,154 +529,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,18 +1002,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1043,6 +1049,20 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="88" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1069,13 +1089,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030313_caisongjiang.xlsx
+++ b/doc/log/log_201508030313_caisongjiang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="5535"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -55,6 +55,12 @@
 2:下载TortoiseGit并进行汉化：
 3.在score-dao中进行创建操作；
 4.在score-service中进行创建操作；</t>
+  </si>
+  <si>
+    <t>10：00-13：40</t>
+  </si>
+  <si>
+    <t>完成dao包中实体以及测试</t>
   </si>
   <si>
     <t>周次</t>
@@ -68,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,7 +96,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,14 +180,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +202,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,14 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,30 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,44 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +435,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,53 +494,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +517,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,16 +550,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,124 +568,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1002,13 +1005,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1058,11 +1061,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1103,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030313_caisongjiang.xlsx
+++ b/doc/log/log_201508030313_caisongjiang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -60,7 +60,25 @@
     <t>10：00-13：40</t>
   </si>
   <si>
-    <t>完成dao包中实体以及测试</t>
+    <t>dao包测试</t>
+  </si>
+  <si>
+    <t>19：00-23：00</t>
+  </si>
+  <si>
+    <t>重新实现dao包中实体以及测试</t>
+  </si>
+  <si>
+    <t>21：00-0：00</t>
+  </si>
+  <si>
+    <t>完成service包中内容测试</t>
+  </si>
+  <si>
+    <t>完成内容</t>
+  </si>
+  <si>
+    <t>测试未通过</t>
   </si>
   <si>
     <t>周次</t>
@@ -74,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +120,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -111,7 +143,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,38 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,31 +259,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,126 +428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -477,6 +486,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,17 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,139 +571,145 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1021,62 +1045,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="70" customHeight="1" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>43219</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="88" customHeight="1" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" ht="88" customHeight="1" spans="1:5">
+      <c r="A3" s="2">
         <v>43239</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>43253</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>43257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1103,13 +1164,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030313_caisongjiang.xlsx
+++ b/doc/log/log_201508030313_caisongjiang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>测试未通过</t>
+  </si>
+  <si>
+    <t>16：00-18：55</t>
+  </si>
+  <si>
+    <t>解决service包中的问题 完成了测试</t>
   </si>
   <si>
     <t>周次</t>
@@ -92,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -106,6 +112,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -114,7 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,7 +164,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,22 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,57 +233,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,73 +265,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,109 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,24 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +479,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,32 +539,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1138,6 +1144,20 @@
       </c>
       <c r="E6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>43259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1164,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030313_caisongjiang.xlsx
+++ b/doc/log/log_201508030313_caisongjiang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>解决service包中的问题 完成了测试</t>
+  </si>
+  <si>
+    <t>18：00-22：00</t>
+  </si>
+  <si>
+    <t>完成部分配置web包</t>
+  </si>
+  <si>
+    <t>配置web包</t>
+  </si>
+  <si>
+    <t>web包中剩余部分内容</t>
+  </si>
+  <si>
+    <t>13：00-18：20</t>
+  </si>
+  <si>
+    <t>完成剩余web包</t>
+  </si>
+  <si>
+    <t>完成！</t>
+  </si>
+  <si>
+    <t>大吉大利，今晚吃鸡！</t>
   </si>
   <si>
     <t>周次</t>
@@ -98,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,16 +136,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,22 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,25 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,53 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -265,6 +289,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,31 +355,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,139 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +480,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,10 +507,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,6 +544,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,41 +574,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -562,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1158,6 +1182,40 @@
       </c>
       <c r="D7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>43264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>43265</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1184,13 +1242,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
